--- a/BalanceSheet/DD_bal.xlsx
+++ b/BalanceSheet/DD_bal.xlsx
@@ -494,19 +494,19 @@
         </is>
       </c>
       <c r="B4" s="0" t="n">
-        <v>258000000.0</v>
+        <v>3726000000.0</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>324000000.0</v>
+        <v>3902000000.0</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>122000000.0</v>
+        <v>4307000000.0</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>-134000000.0</v>
+        <v>4410000000.0</v>
       </c>
       <c r="F4" s="0" t="n">
-        <v>48000000.0</v>
+        <v>4319000000.0</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>4306000000.0</v>
@@ -1900,19 +1900,19 @@
         </is>
       </c>
       <c r="B15" s="0" t="n">
-        <v>134000000.0</v>
+        <v>2964000000.0</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>9000000.0</v>
+        <v>2685000000.0</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>-202000000.0</v>
+        <v>2632000000.0</v>
       </c>
       <c r="E15" s="0" t="n">
-        <v>236000000.0</v>
+        <v>2846000000.0</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>-244000000.0</v>
+        <v>2934000000.0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>2944000000.0</v>
@@ -3472,19 +3472,19 @@
         </is>
       </c>
       <c r="B26" s="0" t="n">
-        <v>-211000000.0</v>
+        <v>2671000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>-171000000.0</v>
+        <v>2774000000.0</v>
       </c>
       <c r="D26" s="0" t="n">
-        <v>-146000000.0</v>
+        <v>2979000000.0</v>
       </c>
       <c r="E26" s="0" t="n">
-        <v>-164000000.0</v>
+        <v>3104000000.0</v>
       </c>
       <c r="F26" s="0" t="n">
-        <v>-135000000.0</v>
+        <v>3278000000.0</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>3474000000.0</v>
